--- a/src/analytics/01 measures of central tendency and dispersion/Opdracht_01_Centrum_Spreidingsmaten.xlsx
+++ b/src/analytics/01 measures of central tendency and dispersion/Opdracht_01_Centrum_Spreidingsmaten.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\python-musings\src\analytics\01 measures of central tendency and dispersion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851346B5-D06A-429F-B63B-96428F745448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Klantendata" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Klantendata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,57 +30,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="15">
   <si>
-    <t xml:space="preserve">ID</t>
+    <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Geslacht</t>
+    <t>Geslacht</t>
   </si>
   <si>
-    <t xml:space="preserve">Leeftijd</t>
+    <t>Leeftijd</t>
   </si>
   <si>
-    <t xml:space="preserve">Inkomen</t>
+    <t>Inkomen</t>
   </si>
   <si>
-    <t xml:space="preserve">Uitgavescore</t>
+    <t>Uitgavescore</t>
   </si>
   <si>
-    <t xml:space="preserve">Man</t>
+    <t>Man</t>
   </si>
   <si>
-    <t xml:space="preserve">Vrouw</t>
+    <t>Vrouw</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>aantal</t>
+  </si>
+  <si>
+    <t>gemiddelde</t>
+  </si>
+  <si>
+    <t>mediaan</t>
+  </si>
+  <si>
+    <t>variantie</t>
+  </si>
+  <si>
+    <t>standaardafwijking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -88,7 +104,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -96,49 +112,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -197,33 +183,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -240,3411 +534,3498 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>19</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>39</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <f>_xlfn.MINIFS($C$2:$C$201,$B$2:$B$201,H$3)</f>
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <f>_xlfn.MINIFS($C$2:$C$201,$B$2:$B$201,I$3)</f>
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2">
+        <f>AVERAGEIFS($C$2:$C$201,$B$2:$B$201,K$3)</f>
+        <v>39.80681818181818</v>
+      </c>
+      <c r="L4" s="2">
+        <f>AVERAGEIFS($C$2:$C$201,$B$2:$B$201,L$3)</f>
+        <v>38.098214285714285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>23</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f>_xlfn.MAXIFS($C$2:$C$201,$B$2:$B$201,H$3)</f>
+        <v>70</v>
+      </c>
+      <c r="I5">
+        <f>_xlfn.MAXIFS($C$2:$C$201,$B$2:$B$201,I$3)</f>
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <f t="array" ref="K5">MEDIAN(IF($B$2:$B$201=K$3,$C$2:$C$201))</f>
+        <v>37</v>
+      </c>
+      <c r="L5">
+        <f t="array" ref="L5">MEDIAN(IF($B2:$B201=L$3,$C2:$C201))</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>31</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>17</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f>H5-H4</f>
+        <v>52</v>
+      </c>
+      <c r="I6">
+        <f>I5-I4</f>
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <f t="array" ref="K6">MEDIAN(IF($B3:$B202=K$3,$C3:$C202))</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>22</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>17</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIFS($B$2:$B$201,H$3)</f>
+        <v>88</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIFS($B$2:$B$201,I$3)</f>
+        <v>112</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>35</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>18</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>18</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>94</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>64</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>19</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
         <v>30</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>19</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>72</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>67</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>19</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
         <v>35</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>19</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>99</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
         <v>58</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>20</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>24</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>20</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>77</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
         <v>37</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>20</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
         <v>22</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>20</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>79</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>35</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>21</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
         <v>20</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>21</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>66</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
         <v>52</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>23</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>29</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>35</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>23</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>98</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
         <v>35</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>24</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>35</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
         <v>25</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>24</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>73</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>46</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>25</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
         <v>31</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>25</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>73</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
         <v>54</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
         <v>29</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>28</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>82</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
         <v>45</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>28</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>32</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
         <v>35</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>28</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>61</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
         <v>40</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>29</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>31</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="0" t="n">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
         <v>23</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>29</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>87</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="0" t="n">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
         <v>60</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="0" t="n">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
         <v>21</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>30</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>73</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
         <v>53</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>33</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="0" t="n">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
         <v>18</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>33</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>92</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
         <v>49</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>33</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>14</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="0" t="n">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
         <v>21</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>33</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>81</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="0" t="n">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
         <v>42</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>34</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>17</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="0" t="n">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
         <v>30</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>34</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>73</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="0" t="n">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
         <v>36</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>37</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>26</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="0" t="n">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
         <v>20</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>37</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>75</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="0" t="n">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
         <v>65</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>38</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>35</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="0" t="n">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
         <v>24</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>38</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>92</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="0" t="n">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
         <v>48</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>39</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>36</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="0" t="n">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
         <v>31</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>39</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>61</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="0" t="n">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
         <v>49</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>39</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>28</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="0" t="n">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
         <v>24</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>39</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>65</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="0" t="n">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
         <v>50</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>40</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>55</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="0" t="n">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
         <v>27</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>40</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="0" t="n">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
         <v>29</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>40</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>42</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="0" t="n">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
         <v>31</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>40</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="0" t="n">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
         <v>49</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>42</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>52</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="0" t="n">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
         <v>33</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>42</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>60</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="0" t="n">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
         <v>31</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>43</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>54</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="0" t="n">
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
         <v>59</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>43</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>60</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="0" t="n">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
         <v>50</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>43</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>45</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="0" t="n">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
         <v>47</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>43</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>41</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="0" t="n">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
         <v>51</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>44</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>50</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="0" t="n">
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
         <v>69</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>44</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>46</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="0" t="n">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
         <v>27</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>46</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>51</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="0" t="n">
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
         <v>53</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>46</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>46</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="0" t="n">
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
         <v>70</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>46</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>56</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="0" t="n">
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
         <v>19</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>46</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>55</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="0" t="n">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
         <v>67</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>47</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>52</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="0" t="n">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
         <v>54</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>47</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>59</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="0" t="n">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
         <v>63</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>48</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>51</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="0" t="n">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
         <v>18</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>48</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>59</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="0" t="n">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
         <v>43</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>48</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>50</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="0" t="n">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
         <v>68</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>48</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>48</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="0" t="n">
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
         <v>19</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>48</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>59</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="0" t="n">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
         <v>32</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>48</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71">
         <v>47</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="0" t="n">
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
         <v>70</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>49</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>55</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="0" t="n">
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
         <v>47</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>49</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>42</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="0" t="n">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
         <v>60</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>50</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>49</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="0" t="n">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
         <v>60</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>50</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>56</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="0" t="n">
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
         <v>59</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>54</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>47</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="0" t="n">
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
         <v>26</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>54</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>54</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="0" t="n">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
         <v>45</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>54</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>53</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="0" t="n">
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
         <v>40</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>54</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>48</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="0" t="n">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
         <v>23</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>54</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>52</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="0" t="n">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
         <v>49</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>54</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>42</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="0" t="n">
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
         <v>57</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>54</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>51</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="0" t="n">
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
         <v>38</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>54</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>55</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="0" t="n">
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84">
         <v>67</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>54</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>41</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="0" t="n">
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
         <v>46</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>54</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>44</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="0" t="n">
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
         <v>21</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86">
         <v>54</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86">
         <v>57</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="0" t="n">
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
         <v>48</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87">
         <v>54</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87">
         <v>46</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="0" t="n">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
         <v>55</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88">
         <v>57</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88">
         <v>58</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="0" t="n">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
         <v>22</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>57</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89">
         <v>55</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="0" t="n">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
         <v>34</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90">
         <v>58</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90">
         <v>60</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="0" t="n">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
         <v>50</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91">
         <v>58</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91">
         <v>46</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="0" t="n">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
         <v>68</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92">
         <v>59</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92">
         <v>55</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="0" t="n">
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
         <v>18</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93">
         <v>59</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93">
         <v>41</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="0" t="n">
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
         <v>48</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94">
         <v>60</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94">
         <v>49</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="0" t="n">
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
         <v>40</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95">
         <v>60</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95">
         <v>40</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" s="0" t="n">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
         <v>32</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96">
         <v>60</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96">
         <v>42</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="0" t="n">
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
         <v>24</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97">
         <v>60</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97">
         <v>52</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="0" t="n">
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98">
         <v>47</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>60</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98">
         <v>47</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="0" t="n">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
         <v>27</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>60</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99">
         <v>50</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="0" t="n">
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
         <v>48</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100">
         <v>61</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100">
         <v>42</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="0" t="n">
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
         <v>20</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>61</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101">
         <v>49</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="0" t="n">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
         <v>23</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>62</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102">
         <v>41</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" s="0" t="n">
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
         <v>49</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103">
         <v>62</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103">
         <v>48</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="0" t="n">
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
         <v>67</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>62</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104">
         <v>59</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="0" t="n">
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
         <v>26</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>62</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105">
         <v>55</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="0" t="n">
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
         <v>49</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>62</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106">
         <v>56</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" s="0" t="n">
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107">
         <v>21</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107">
         <v>62</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107">
         <v>42</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="0" t="n">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
         <v>66</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108">
         <v>63</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108">
         <v>50</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="0" t="n">
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
         <v>54</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109">
         <v>63</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109">
         <v>46</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="0" t="n">
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110">
         <v>68</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110">
         <v>63</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110">
         <v>43</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="0" t="n">
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
         <v>66</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111">
         <v>63</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111">
         <v>48</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="0" t="n">
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112">
         <v>65</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112">
         <v>63</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112">
         <v>52</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" s="0" t="n">
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
         <v>19</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113">
         <v>63</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113">
         <v>54</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" s="0" t="n">
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114">
         <v>38</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114">
         <v>64</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114">
         <v>42</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="0" t="n">
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
         <v>19</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115">
         <v>64</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115">
         <v>46</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="0" t="n">
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116">
         <v>18</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116">
         <v>65</v>
       </c>
-      <c r="E116" s="0" t="n">
+      <c r="E116">
         <v>48</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="0" t="n">
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117">
         <v>19</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117">
         <v>65</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117">
         <v>50</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" s="0" t="n">
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118">
         <v>63</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118">
         <v>65</v>
       </c>
-      <c r="E118" s="0" t="n">
+      <c r="E118">
         <v>43</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="0" t="n">
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119">
         <v>49</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119">
         <v>65</v>
       </c>
-      <c r="E119" s="0" t="n">
+      <c r="E119">
         <v>59</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120" s="0" t="n">
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
         <v>51</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120">
         <v>67</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120">
         <v>43</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="0" t="n">
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
         <v>50</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121">
         <v>67</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121">
         <v>57</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="0" t="n">
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
         <v>27</v>
       </c>
-      <c r="D122" s="0" t="n">
+      <c r="D122">
         <v>67</v>
       </c>
-      <c r="E122" s="0" t="n">
+      <c r="E122">
         <v>56</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C123" s="0" t="n">
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123">
         <v>38</v>
       </c>
-      <c r="D123" s="0" t="n">
+      <c r="D123">
         <v>67</v>
       </c>
-      <c r="E123" s="0" t="n">
+      <c r="E123">
         <v>40</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="0" t="n">
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124">
         <v>40</v>
       </c>
-      <c r="D124" s="0" t="n">
+      <c r="D124">
         <v>69</v>
       </c>
-      <c r="E124" s="0" t="n">
+      <c r="E124">
         <v>58</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" s="0" t="n">
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125">
         <v>39</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125">
         <v>69</v>
       </c>
-      <c r="E125" s="0" t="n">
+      <c r="E125">
         <v>91</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" s="0" t="n">
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126">
         <v>23</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126">
         <v>70</v>
       </c>
-      <c r="E126" s="0" t="n">
+      <c r="E126">
         <v>29</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" s="0" t="n">
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127">
         <v>31</v>
       </c>
-      <c r="D127" s="0" t="n">
+      <c r="D127">
         <v>70</v>
       </c>
-      <c r="E127" s="0" t="n">
+      <c r="E127">
         <v>77</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" s="0" t="n">
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128">
         <v>43</v>
       </c>
-      <c r="D128" s="0" t="n">
+      <c r="D128">
         <v>71</v>
       </c>
-      <c r="E128" s="0" t="n">
+      <c r="E128">
         <v>35</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" s="0" t="n">
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
         <v>40</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129">
         <v>71</v>
       </c>
-      <c r="E129" s="0" t="n">
+      <c r="E129">
         <v>95</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" s="0" t="n">
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
         <v>59</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130">
         <v>71</v>
       </c>
-      <c r="E130" s="0" t="n">
+      <c r="E130">
         <v>11</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" s="0" t="n">
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
         <v>38</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131">
         <v>71</v>
       </c>
-      <c r="E131" s="0" t="n">
+      <c r="E131">
         <v>75</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="0" t="n">
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132">
         <v>47</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132">
         <v>71</v>
       </c>
-      <c r="E132" s="0" t="n">
+      <c r="E132">
         <v>9</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="0" t="n">
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
         <v>39</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133">
         <v>71</v>
       </c>
-      <c r="E133" s="0" t="n">
+      <c r="E133">
         <v>75</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="0" t="n">
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134">
         <v>25</v>
       </c>
-      <c r="D134" s="0" t="n">
+      <c r="D134">
         <v>72</v>
       </c>
-      <c r="E134" s="0" t="n">
+      <c r="E134">
         <v>34</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" s="0" t="n">
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135">
         <v>31</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135">
         <v>72</v>
       </c>
-      <c r="E135" s="0" t="n">
+      <c r="E135">
         <v>71</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" s="0" t="n">
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136">
         <v>20</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136">
         <v>73</v>
       </c>
-      <c r="E136" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
+      <c r="E136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="0" t="n">
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137">
         <v>29</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137">
         <v>73</v>
       </c>
-      <c r="E137" s="0" t="n">
+      <c r="E137">
         <v>88</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="0" t="n">
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138">
         <v>44</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138">
         <v>73</v>
       </c>
-      <c r="E138" s="0" t="n">
+      <c r="E138">
         <v>7</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C139" s="0" t="n">
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139">
         <v>32</v>
       </c>
-      <c r="D139" s="0" t="n">
+      <c r="D139">
         <v>73</v>
       </c>
-      <c r="E139" s="0" t="n">
+      <c r="E139">
         <v>73</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C140" s="0" t="n">
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140">
         <v>19</v>
       </c>
-      <c r="D140" s="0" t="n">
+      <c r="D140">
         <v>74</v>
       </c>
-      <c r="E140" s="0" t="n">
+      <c r="E140">
         <v>10</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C141" s="0" t="n">
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141">
         <v>35</v>
       </c>
-      <c r="D141" s="0" t="n">
+      <c r="D141">
         <v>74</v>
       </c>
-      <c r="E141" s="0" t="n">
+      <c r="E141">
         <v>72</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C142" s="0" t="n">
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142">
         <v>57</v>
       </c>
-      <c r="D142" s="0" t="n">
+      <c r="D142">
         <v>75</v>
       </c>
-      <c r="E142" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
+      <c r="E142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C143" s="0" t="n">
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
         <v>32</v>
       </c>
-      <c r="D143" s="0" t="n">
+      <c r="D143">
         <v>75</v>
       </c>
-      <c r="E143" s="0" t="n">
+      <c r="E143">
         <v>93</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" s="0" t="n">
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144">
         <v>28</v>
       </c>
-      <c r="D144" s="0" t="n">
+      <c r="D144">
         <v>76</v>
       </c>
-      <c r="E144" s="0" t="n">
+      <c r="E144">
         <v>40</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" s="0" t="n">
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145">
         <v>32</v>
       </c>
-      <c r="D145" s="0" t="n">
+      <c r="D145">
         <v>76</v>
       </c>
-      <c r="E145" s="0" t="n">
+      <c r="E145">
         <v>87</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" s="0" t="n">
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
         <v>25</v>
       </c>
-      <c r="D146" s="0" t="n">
+      <c r="D146">
         <v>77</v>
       </c>
-      <c r="E146" s="0" t="n">
+      <c r="E146">
         <v>12</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="0" t="n">
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
         <v>28</v>
       </c>
-      <c r="D147" s="0" t="n">
+      <c r="D147">
         <v>77</v>
       </c>
-      <c r="E147" s="0" t="n">
+      <c r="E147">
         <v>97</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" s="0" t="n">
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
         <v>48</v>
       </c>
-      <c r="D148" s="0" t="n">
+      <c r="D148">
         <v>77</v>
       </c>
-      <c r="E148" s="0" t="n">
+      <c r="E148">
         <v>36</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" s="0" t="n">
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149">
         <v>32</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149">
         <v>77</v>
       </c>
-      <c r="E149" s="0" t="n">
+      <c r="E149">
         <v>74</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="0" t="n">
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150">
         <v>34</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150">
         <v>78</v>
       </c>
-      <c r="E150" s="0" t="n">
+      <c r="E150">
         <v>22</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" s="0" t="n">
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
         <v>34</v>
       </c>
-      <c r="D151" s="0" t="n">
+      <c r="D151">
         <v>78</v>
       </c>
-      <c r="E151" s="0" t="n">
+      <c r="E151">
         <v>90</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="n">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" s="0" t="n">
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152">
         <v>43</v>
       </c>
-      <c r="D152" s="0" t="n">
+      <c r="D152">
         <v>78</v>
       </c>
-      <c r="E152" s="0" t="n">
+      <c r="E152">
         <v>17</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="n">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" s="0" t="n">
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
         <v>39</v>
       </c>
-      <c r="D153" s="0" t="n">
+      <c r="D153">
         <v>78</v>
       </c>
-      <c r="E153" s="0" t="n">
+      <c r="E153">
         <v>88</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="n">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C154" s="0" t="n">
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154">
         <v>44</v>
       </c>
-      <c r="D154" s="0" t="n">
+      <c r="D154">
         <v>78</v>
       </c>
-      <c r="E154" s="0" t="n">
+      <c r="E154">
         <v>20</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="n">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C155" s="0" t="n">
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155">
         <v>38</v>
       </c>
-      <c r="D155" s="0" t="n">
+      <c r="D155">
         <v>78</v>
       </c>
-      <c r="E155" s="0" t="n">
+      <c r="E155">
         <v>76</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="n">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" s="0" t="n">
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156">
         <v>47</v>
       </c>
-      <c r="D156" s="0" t="n">
+      <c r="D156">
         <v>78</v>
       </c>
-      <c r="E156" s="0" t="n">
+      <c r="E156">
         <v>16</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="n">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C157" s="0" t="n">
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157">
         <v>27</v>
       </c>
-      <c r="D157" s="0" t="n">
+      <c r="D157">
         <v>78</v>
       </c>
-      <c r="E157" s="0" t="n">
+      <c r="E157">
         <v>89</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="n">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" s="0" t="n">
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158">
         <v>37</v>
       </c>
-      <c r="D158" s="0" t="n">
+      <c r="D158">
         <v>78</v>
       </c>
-      <c r="E158" s="0" t="n">
+      <c r="E158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="n">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C159" s="0" t="n">
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159">
         <v>30</v>
       </c>
-      <c r="D159" s="0" t="n">
+      <c r="D159">
         <v>78</v>
       </c>
-      <c r="E159" s="0" t="n">
+      <c r="E159">
         <v>78</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="n">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" s="0" t="n">
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160">
         <v>34</v>
       </c>
-      <c r="D160" s="0" t="n">
+      <c r="D160">
         <v>78</v>
       </c>
-      <c r="E160" s="0" t="n">
+      <c r="E160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="n">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="0" t="n">
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161">
         <v>30</v>
       </c>
-      <c r="D161" s="0" t="n">
+      <c r="D161">
         <v>78</v>
       </c>
-      <c r="E161" s="0" t="n">
+      <c r="E161">
         <v>73</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="n">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C162" s="0" t="n">
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162">
         <v>56</v>
       </c>
-      <c r="D162" s="0" t="n">
+      <c r="D162">
         <v>79</v>
       </c>
-      <c r="E162" s="0" t="n">
+      <c r="E162">
         <v>35</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="n">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C163" s="0" t="n">
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163">
         <v>29</v>
       </c>
-      <c r="D163" s="0" t="n">
+      <c r="D163">
         <v>79</v>
       </c>
-      <c r="E163" s="0" t="n">
+      <c r="E163">
         <v>83</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="n">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" s="0" t="n">
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164">
         <v>19</v>
       </c>
-      <c r="D164" s="0" t="n">
+      <c r="D164">
         <v>81</v>
       </c>
-      <c r="E164" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="n">
+      <c r="E164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C165" s="0" t="n">
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165">
         <v>31</v>
       </c>
-      <c r="D165" s="0" t="n">
+      <c r="D165">
         <v>81</v>
       </c>
-      <c r="E165" s="0" t="n">
+      <c r="E165">
         <v>93</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="n">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="0" t="n">
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166">
         <v>50</v>
       </c>
-      <c r="D166" s="0" t="n">
+      <c r="D166">
         <v>85</v>
       </c>
-      <c r="E166" s="0" t="n">
+      <c r="E166">
         <v>26</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="n">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C167" s="0" t="n">
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167">
         <v>36</v>
       </c>
-      <c r="D167" s="0" t="n">
+      <c r="D167">
         <v>85</v>
       </c>
-      <c r="E167" s="0" t="n">
+      <c r="E167">
         <v>75</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="n">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" s="0" t="n">
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168">
         <v>42</v>
       </c>
-      <c r="D168" s="0" t="n">
+      <c r="D168">
         <v>86</v>
       </c>
-      <c r="E168" s="0" t="n">
+      <c r="E168">
         <v>20</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="n">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C169" s="0" t="n">
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169">
         <v>33</v>
       </c>
-      <c r="D169" s="0" t="n">
+      <c r="D169">
         <v>86</v>
       </c>
-      <c r="E169" s="0" t="n">
+      <c r="E169">
         <v>95</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="n">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C170" s="0" t="n">
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170">
         <v>36</v>
       </c>
-      <c r="D170" s="0" t="n">
+      <c r="D170">
         <v>87</v>
       </c>
-      <c r="E170" s="0" t="n">
+      <c r="E170">
         <v>27</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="n">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C171" s="0" t="n">
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171">
         <v>32</v>
       </c>
-      <c r="D171" s="0" t="n">
+      <c r="D171">
         <v>87</v>
       </c>
-      <c r="E171" s="0" t="n">
+      <c r="E171">
         <v>63</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="n">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" s="0" t="n">
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172">
         <v>40</v>
       </c>
-      <c r="D172" s="0" t="n">
+      <c r="D172">
         <v>87</v>
       </c>
-      <c r="E172" s="0" t="n">
+      <c r="E172">
         <v>13</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="n">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="0" t="n">
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173">
         <v>28</v>
       </c>
-      <c r="D173" s="0" t="n">
+      <c r="D173">
         <v>87</v>
       </c>
-      <c r="E173" s="0" t="n">
+      <c r="E173">
         <v>75</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="n">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C174" s="0" t="n">
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174">
         <v>36</v>
       </c>
-      <c r="D174" s="0" t="n">
+      <c r="D174">
         <v>87</v>
       </c>
-      <c r="E174" s="0" t="n">
+      <c r="E174">
         <v>10</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="n">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" s="0" t="n">
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175">
         <v>36</v>
       </c>
-      <c r="D175" s="0" t="n">
+      <c r="D175">
         <v>87</v>
       </c>
-      <c r="E175" s="0" t="n">
+      <c r="E175">
         <v>92</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="n">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C176" s="0" t="n">
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176">
         <v>52</v>
       </c>
-      <c r="D176" s="0" t="n">
+      <c r="D176">
         <v>88</v>
       </c>
-      <c r="E176" s="0" t="n">
+      <c r="E176">
         <v>13</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="n">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177" s="0" t="n">
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177">
         <v>30</v>
       </c>
-      <c r="D177" s="0" t="n">
+      <c r="D177">
         <v>88</v>
       </c>
-      <c r="E177" s="0" t="n">
+      <c r="E177">
         <v>86</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="n">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" s="0" t="n">
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178">
         <v>58</v>
       </c>
-      <c r="D178" s="0" t="n">
+      <c r="D178">
         <v>88</v>
       </c>
-      <c r="E178" s="0" t="n">
+      <c r="E178">
         <v>15</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="n">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" s="0" t="n">
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179">
         <v>27</v>
       </c>
-      <c r="D179" s="0" t="n">
+      <c r="D179">
         <v>88</v>
       </c>
-      <c r="E179" s="0" t="n">
+      <c r="E179">
         <v>69</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="n">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" s="0" t="n">
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180">
         <v>59</v>
       </c>
-      <c r="D180" s="0" t="n">
+      <c r="D180">
         <v>93</v>
       </c>
-      <c r="E180" s="0" t="n">
+      <c r="E180">
         <v>14</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="n">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C181" s="0" t="n">
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181">
         <v>35</v>
       </c>
-      <c r="D181" s="0" t="n">
+      <c r="D181">
         <v>93</v>
       </c>
-      <c r="E181" s="0" t="n">
+      <c r="E181">
         <v>90</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="n">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" s="0" t="n">
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182">
         <v>37</v>
       </c>
-      <c r="D182" s="0" t="n">
+      <c r="D182">
         <v>97</v>
       </c>
-      <c r="E182" s="0" t="n">
+      <c r="E182">
         <v>32</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="n">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C183" s="0" t="n">
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183">
         <v>32</v>
       </c>
-      <c r="D183" s="0" t="n">
+      <c r="D183">
         <v>97</v>
       </c>
-      <c r="E183" s="0" t="n">
+      <c r="E183">
         <v>86</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="n">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184" s="0" t="n">
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184">
         <v>46</v>
       </c>
-      <c r="D184" s="0" t="n">
+      <c r="D184">
         <v>98</v>
       </c>
-      <c r="E184" s="0" t="n">
+      <c r="E184">
         <v>15</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="n">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" s="0" t="n">
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185">
         <v>29</v>
       </c>
-      <c r="D185" s="0" t="n">
+      <c r="D185">
         <v>98</v>
       </c>
-      <c r="E185" s="0" t="n">
+      <c r="E185">
         <v>88</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="n">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" s="0" t="n">
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186">
         <v>41</v>
       </c>
-      <c r="D186" s="0" t="n">
+      <c r="D186">
         <v>99</v>
       </c>
-      <c r="E186" s="0" t="n">
+      <c r="E186">
         <v>39</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="n">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" s="0" t="n">
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187">
         <v>30</v>
       </c>
-      <c r="D187" s="0" t="n">
+      <c r="D187">
         <v>99</v>
       </c>
-      <c r="E187" s="0" t="n">
+      <c r="E187">
         <v>97</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="n">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" s="0" t="n">
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188">
         <v>54</v>
       </c>
-      <c r="D188" s="0" t="n">
+      <c r="D188">
         <v>101</v>
       </c>
-      <c r="E188" s="0" t="n">
+      <c r="E188">
         <v>24</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="n">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C189" s="0" t="n">
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189">
         <v>28</v>
       </c>
-      <c r="D189" s="0" t="n">
+      <c r="D189">
         <v>101</v>
       </c>
-      <c r="E189" s="0" t="n">
+      <c r="E189">
         <v>68</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="n">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190" s="0" t="n">
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190">
         <v>41</v>
       </c>
-      <c r="D190" s="0" t="n">
+      <c r="D190">
         <v>103</v>
       </c>
-      <c r="E190" s="0" t="n">
+      <c r="E190">
         <v>17</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="n">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C191" s="0" t="n">
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191">
         <v>36</v>
       </c>
-      <c r="D191" s="0" t="n">
+      <c r="D191">
         <v>103</v>
       </c>
-      <c r="E191" s="0" t="n">
+      <c r="E191">
         <v>85</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="n">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C192" s="0" t="n">
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192">
         <v>34</v>
       </c>
-      <c r="D192" s="0" t="n">
+      <c r="D192">
         <v>103</v>
       </c>
-      <c r="E192" s="0" t="n">
+      <c r="E192">
         <v>23</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="n">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C193" s="0" t="n">
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193">
         <v>32</v>
       </c>
-      <c r="D193" s="0" t="n">
+      <c r="D193">
         <v>103</v>
       </c>
-      <c r="E193" s="0" t="n">
+      <c r="E193">
         <v>69</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="n">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C194" s="0" t="n">
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194">
         <v>33</v>
       </c>
-      <c r="D194" s="0" t="n">
+      <c r="D194">
         <v>113</v>
       </c>
-      <c r="E194" s="0" t="n">
+      <c r="E194">
         <v>8</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="n">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C195" s="0" t="n">
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195">
         <v>38</v>
       </c>
-      <c r="D195" s="0" t="n">
+      <c r="D195">
         <v>113</v>
       </c>
-      <c r="E195" s="0" t="n">
+      <c r="E195">
         <v>91</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="n">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" s="0" t="n">
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196">
         <v>47</v>
       </c>
-      <c r="D196" s="0" t="n">
+      <c r="D196">
         <v>120</v>
       </c>
-      <c r="E196" s="0" t="n">
+      <c r="E196">
         <v>16</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="n">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C197" s="0" t="n">
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197">
         <v>35</v>
       </c>
-      <c r="D197" s="0" t="n">
+      <c r="D197">
         <v>120</v>
       </c>
-      <c r="E197" s="0" t="n">
+      <c r="E197">
         <v>79</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="n">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C198" s="0" t="n">
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198">
         <v>45</v>
       </c>
-      <c r="D198" s="0" t="n">
+      <c r="D198">
         <v>126</v>
       </c>
-      <c r="E198" s="0" t="n">
+      <c r="E198">
         <v>28</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="n">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C199" s="0" t="n">
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199">
         <v>32</v>
       </c>
-      <c r="D199" s="0" t="n">
+      <c r="D199">
         <v>126</v>
       </c>
-      <c r="E199" s="0" t="n">
+      <c r="E199">
         <v>74</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="n">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C200" s="0" t="n">
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200">
         <v>32</v>
       </c>
-      <c r="D200" s="0" t="n">
+      <c r="D200">
         <v>137</v>
       </c>
-      <c r="E200" s="0" t="n">
+      <c r="E200">
         <v>18</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="n">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C201" s="0" t="n">
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201">
         <v>30</v>
       </c>
-      <c r="D201" s="0" t="n">
+      <c r="D201">
         <v>137</v>
       </c>
-      <c r="E201" s="0" t="n">
+      <c r="E201">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
